--- a/.5 sem 21 fall/._электрические машины/_пз/excel pz.xlsx
+++ b/.5 sem 21 fall/._электрические машины/_пз/excel pz.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0464CCFF-1AF6-47E2-85B7-1D1B387C96E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -258,7 +261,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -348,7 +351,7 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -464,7 +467,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D9B9-4908-B676-E595D22CAA8F}"/>
@@ -585,7 +588,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-D9B9-4908-B676-E595D22CAA8F}"/>
@@ -706,7 +709,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-D9B9-4908-B676-E595D22CAA8F}"/>
@@ -824,7 +827,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-D9B9-4908-B676-E595D22CAA8F}"/>
@@ -870,16 +873,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -895,21 +895,15 @@
                 </a:br>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>I,</a:t>
+                  <a:t>I, </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:rPr lang="ru-RU"/>
                   <a:t>А</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -923,16 +917,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="ru-RU"/>
@@ -961,16 +952,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -1008,16 +996,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -1039,7 +1024,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1053,16 +1037,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="ru-RU"/>
@@ -1091,16 +1072,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -1126,8 +1104,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.90491035006166409"/>
           <c:y val="4.1548924031554871E-2"/>
-          <c:w val="8.5249596812446635E-2"/>
-          <c:h val="0.78618290360763732"/>
+          <c:w val="9.5089738071837987E-2"/>
+          <c:h val="0.19396051601863892"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1143,16 +1121,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ru-RU"/>
@@ -1183,7 +1158,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400" b="1">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
@@ -1224,7 +1205,7 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1340,7 +1321,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ACC2-4DD1-8CBD-240FD21C1EB0}"/>
@@ -1461,7 +1442,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-ACC2-4DD1-8CBD-240FD21C1EB0}"/>
@@ -1582,7 +1563,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-ACC2-4DD1-8CBD-240FD21C1EB0}"/>
@@ -1703,7 +1684,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-ACC2-4DD1-8CBD-240FD21C1EB0}"/>
@@ -1824,7 +1805,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-ACC2-4DD1-8CBD-240FD21C1EB0}"/>
@@ -1870,35 +1851,34 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>I,</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
+                  <a:rPr lang="ru-RU"/>
                   <a:t>А</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.90483626799996508"/>
+              <c:y val="0.89632183908045981"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1912,16 +1892,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="ru-RU"/>
@@ -1950,16 +1927,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -1997,16 +1971,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -2028,7 +1999,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2042,16 +2012,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="ru-RU"/>
@@ -2080,16 +2047,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -2115,8 +2079,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.90330392435885276"/>
           <c:y val="8.2632023938184196E-2"/>
-          <c:w val="9.669616777818732E-2"/>
-          <c:h val="0.21297477203846771"/>
+          <c:w val="9.6696079533326387E-2"/>
+          <c:h val="0.24540139379129333"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2132,16 +2096,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ru-RU"/>
@@ -2172,7 +2133,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400" b="1">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
@@ -2213,7 +2180,7 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="4"/>
@@ -2305,7 +2272,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-1404-47CC-836D-F1073E10B3AF}"/>
@@ -2402,7 +2369,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-1404-47CC-836D-F1073E10B3AF}"/>
@@ -2499,7 +2466,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000E-1404-47CC-836D-F1073E10B3AF}"/>
@@ -2596,7 +2563,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-1404-47CC-836D-F1073E10B3AF}"/>
@@ -2717,7 +2684,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-1404-47CC-836D-F1073E10B3AF}"/>
@@ -2838,7 +2805,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-1404-47CC-836D-F1073E10B3AF}"/>
@@ -2959,7 +2926,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-1404-47CC-836D-F1073E10B3AF}"/>
@@ -3080,7 +3047,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-1404-47CC-836D-F1073E10B3AF}"/>
@@ -3122,21 +3089,11 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -3151,21 +3108,15 @@
                 </a:br>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>I,</a:t>
+                  <a:t>I, </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:rPr lang="ru-RU"/>
                   <a:t>А</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3193,21 +3144,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -3240,21 +3181,11 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="el-GR"/>
@@ -3275,7 +3206,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3303,21 +3233,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -3335,8 +3255,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.90330392435885276"/>
           <c:y val="8.2632023938184196E-2"/>
-          <c:w val="8.6856022515257883E-2"/>
-          <c:h val="0.79365255813611535"/>
+          <c:w val="9.6696117502779941E-2"/>
+          <c:h val="0.41011151831589648"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3348,21 +3268,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
+            <a:defRPr/>
           </a:pPr>
           <a:endParaRPr lang="ru-RU"/>
         </a:p>
@@ -3377,7 +3287,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400" b="1">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
@@ -3418,7 +3334,7 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3534,7 +3450,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F613-49DE-AF45-72A866B05B5D}"/>
@@ -3655,7 +3571,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F613-49DE-AF45-72A866B05B5D}"/>
@@ -3776,7 +3692,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-F613-49DE-AF45-72A866B05B5D}"/>
@@ -3897,7 +3813,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-F613-49DE-AF45-72A866B05B5D}"/>
@@ -4018,7 +3934,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-F613-49DE-AF45-72A866B05B5D}"/>
@@ -4064,16 +3980,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -4087,7 +4000,14 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.89938729579469956"/>
+              <c:y val="0.88616183713572316"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4101,16 +4021,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="ru-RU"/>
@@ -4139,16 +4056,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -4186,16 +4100,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -4217,7 +4128,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4231,16 +4141,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="ru-RU"/>
@@ -4269,16 +4176,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -4304,8 +4208,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.90330392435885276"/>
           <c:y val="8.2632023938184196E-2"/>
-          <c:w val="9.669616777818732E-2"/>
-          <c:h val="0.21297477203846771"/>
+          <c:w val="9.66961826519427E-2"/>
+          <c:h val="0.26944964673142346"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4321,16 +4225,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ru-RU"/>
@@ -4361,7 +4262,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400" b="1">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
@@ -4402,7 +4309,7 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4518,7 +4425,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-38F6-47EC-91BD-E77CFFE33677}"/>
@@ -4639,7 +4546,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-38F6-47EC-91BD-E77CFFE33677}"/>
@@ -4760,7 +4667,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-38F6-47EC-91BD-E77CFFE33677}"/>
@@ -4881,7 +4788,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-38F6-47EC-91BD-E77CFFE33677}"/>
@@ -5002,7 +4909,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-38F6-47EC-91BD-E77CFFE33677}"/>
@@ -5048,16 +4955,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -5071,7 +4975,14 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.90648547266257551"/>
+              <c:y val="0.89121009269511453"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5085,16 +4996,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="ru-RU"/>
@@ -5123,16 +5031,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -5170,16 +5075,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -5201,7 +5103,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5215,16 +5116,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="ru-RU"/>
@@ -5253,16 +5151,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -5288,8 +5183,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.90330392435885276"/>
           <c:y val="8.2632023938184196E-2"/>
-          <c:w val="9.669616777818732E-2"/>
-          <c:h val="0.21297477203846771"/>
+          <c:w val="9.6696079533326387E-2"/>
+          <c:h val="0.26944964673142346"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5305,16 +5200,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ru-RU"/>
@@ -5345,7 +5237,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400" b="1">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
@@ -5386,7 +5284,7 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="5"/>
@@ -5478,7 +5376,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-EB19-44BF-9EFF-38F5BEA55D5A}"/>
@@ -5575,7 +5473,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000010-EB19-44BF-9EFF-38F5BEA55D5A}"/>
@@ -5672,7 +5570,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000011-EB19-44BF-9EFF-38F5BEA55D5A}"/>
@@ -5769,7 +5667,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000012-EB19-44BF-9EFF-38F5BEA55D5A}"/>
@@ -5866,7 +5764,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000013-EB19-44BF-9EFF-38F5BEA55D5A}"/>
@@ -5987,7 +5885,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-EB19-44BF-9EFF-38F5BEA55D5A}"/>
@@ -6108,7 +6006,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-EB19-44BF-9EFF-38F5BEA55D5A}"/>
@@ -6229,7 +6127,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-EB19-44BF-9EFF-38F5BEA55D5A}"/>
@@ -6350,7 +6248,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-EB19-44BF-9EFF-38F5BEA55D5A}"/>
@@ -6471,7 +6369,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000E-EB19-44BF-9EFF-38F5BEA55D5A}"/>
@@ -6513,21 +6411,11 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -6540,7 +6428,14 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.90070665952478801"/>
+              <c:y val="0.88251435851208826"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6568,21 +6463,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -6615,21 +6500,11 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="el-GR"/>
@@ -6650,7 +6525,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6678,21 +6552,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -6710,8 +6574,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.90330392435885276"/>
           <c:y val="8.2632023938184196E-2"/>
-          <c:w val="9.669616777818732E-2"/>
-          <c:h val="0.21297477203846771"/>
+          <c:w val="9.66961826519427E-2"/>
+          <c:h val="0.5214780031037427"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6723,21 +6587,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
+            <a:defRPr/>
           </a:pPr>
           <a:endParaRPr lang="ru-RU"/>
         </a:p>
@@ -6752,7 +6606,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400" b="1">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
@@ -6793,7 +6650,7 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -6909,7 +6766,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CD79-44FF-8C1E-3A72F1D781CB}"/>
@@ -7030,7 +6887,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CD79-44FF-8C1E-3A72F1D781CB}"/>
@@ -7151,7 +7008,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-CD79-44FF-8C1E-3A72F1D781CB}"/>
@@ -7272,7 +7129,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-CD79-44FF-8C1E-3A72F1D781CB}"/>
@@ -7393,7 +7250,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-CD79-44FF-8C1E-3A72F1D781CB}"/>
@@ -7439,35 +7296,34 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>I, </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
+                  <a:rPr lang="ru-RU"/>
                   <a:t>А</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.90384674520239872"/>
+              <c:y val="0.89121009269511453"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7481,16 +7337,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="ru-RU"/>
@@ -7519,16 +7372,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -7566,16 +7416,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -7597,7 +7444,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7611,16 +7457,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="ru-RU"/>
@@ -7649,16 +7492,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -7684,8 +7524,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.90330392435885276"/>
           <c:y val="8.2632023938184196E-2"/>
-          <c:w val="9.669616777818732E-2"/>
-          <c:h val="0.21297477203846771"/>
+          <c:w val="9.6696079533326387E-2"/>
+          <c:h val="0.26944964673142346"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7701,16 +7541,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ru-RU"/>
@@ -7741,7 +7578,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400" b="1">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
@@ -7782,7 +7625,7 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -7898,7 +7741,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2183-4482-8CC2-8AC529D66BD1}"/>
@@ -8016,7 +7859,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2183-4482-8CC2-8AC529D66BD1}"/>
@@ -8134,7 +7977,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2183-4482-8CC2-8AC529D66BD1}"/>
@@ -8252,7 +8095,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-2183-4482-8CC2-8AC529D66BD1}"/>
@@ -8370,7 +8213,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2183-4482-8CC2-8AC529D66BD1}"/>
@@ -8416,16 +8259,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -8439,7 +8279,14 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.898067932064611"/>
+              <c:y val="0.8906345682792407"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8453,16 +8300,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="ru-RU"/>
@@ -8491,16 +8335,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -8538,16 +8379,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -8569,7 +8407,14 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.0964535918482851E-2"/>
+              <c:y val="0.40569914049514472"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8583,16 +8428,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="ru-RU"/>
@@ -8621,16 +8463,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -8656,8 +8495,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.90330392435885276"/>
           <c:y val="8.2632023938184196E-2"/>
-          <c:w val="9.669616777818732E-2"/>
-          <c:h val="0.21297477203846771"/>
+          <c:w val="9.66961826519427E-2"/>
+          <c:h val="0.26473280677855954"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -8673,16 +8512,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ru-RU"/>
@@ -8713,7 +8549,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400" b="1">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
@@ -8754,7 +8596,7 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -8870,7 +8712,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D9B1-408B-A630-8858E2D4A1EE}"/>
@@ -8988,7 +8830,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D9B1-408B-A630-8858E2D4A1EE}"/>
@@ -9106,7 +8948,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D9B1-408B-A630-8858E2D4A1EE}"/>
@@ -9227,7 +9069,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-D9B1-408B-A630-8858E2D4A1EE}"/>
@@ -9345,7 +9187,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-D9B1-408B-A630-8858E2D4A1EE}"/>
@@ -9391,35 +9233,34 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>I,</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
+                  <a:rPr lang="ru-RU"/>
                   <a:t>А</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.90615563173005365"/>
+              <c:y val="0.89632183908045981"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9433,16 +9274,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="ru-RU"/>
@@ -9471,16 +9309,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -9518,16 +9353,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -9549,7 +9381,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9563,16 +9394,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="ru-RU"/>
@@ -9601,16 +9429,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -9636,8 +9461,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.90330392435885276"/>
           <c:y val="8.2632023938184196E-2"/>
-          <c:w val="9.669616777818732E-2"/>
-          <c:h val="0.21297477203846771"/>
+          <c:w val="9.6696079533326387E-2"/>
+          <c:h val="0.24540139379129333"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -9653,16 +9478,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ru-RU"/>
@@ -9693,7 +9515,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400" b="1" i="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
@@ -9734,7 +9562,7 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -9850,7 +9678,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E3F1-4D12-B3FD-2B7F568517E9}"/>
@@ -9971,7 +9799,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E3F1-4D12-B3FD-2B7F568517E9}"/>
@@ -10092,7 +9920,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E3F1-4D12-B3FD-2B7F568517E9}"/>
@@ -10213,7 +10041,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E3F1-4D12-B3FD-2B7F568517E9}"/>
@@ -10334,7 +10162,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-E3F1-4D12-B3FD-2B7F568517E9}"/>
@@ -10380,16 +10208,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -10403,7 +10228,14 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.89938729579469956"/>
+              <c:y val="0.89311451004161613"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10417,16 +10249,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="ru-RU"/>
@@ -10455,16 +10284,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -10502,16 +10328,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -10533,7 +10356,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10547,16 +10369,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="ru-RU"/>
@@ -10585,16 +10404,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -10620,8 +10436,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.90330392435885276"/>
           <c:y val="8.2632023938184196E-2"/>
-          <c:w val="9.669616777818732E-2"/>
-          <c:h val="0.21297477203846771"/>
+          <c:w val="9.6696119956818719E-2"/>
+          <c:h val="0.26473280677855954"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -10637,16 +10453,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ru-RU"/>
@@ -10677,7 +10490,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1400" b="1">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
@@ -15142,20 +14961,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>761998</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>571499</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>280144</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>67234</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:colOff>358586</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15173,19 +14998,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>388843</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>224117</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:colOff>593910</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -15205,19 +15036,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>280147</xdr:rowOff>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -15237,19 +15074,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
+      <xdr:colOff>168089</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>291353</xdr:rowOff>
+      <xdr:rowOff>302558</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>560294</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -15269,19 +15112,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>78441</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>549088</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:rowOff>89646</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvPr id="7" name="Диаграмма 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -15301,19 +15150,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>100853</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>336176</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvPr id="8" name="Диаграмма 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -15333,19 +15188,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
+      <xdr:colOff>78441</xdr:colOff>
       <xdr:row>129</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>582705</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>549088</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Диаграмма 8"/>
+        <xdr:cNvPr id="9" name="Диаграмма 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -15365,19 +15226,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
+      <xdr:colOff>145676</xdr:colOff>
       <xdr:row>143</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>560294</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>89646</xdr:colOff>
       <xdr:row>159</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Диаграмма 9"/>
+        <xdr:cNvPr id="10" name="Диаграмма 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -15397,19 +15264,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
+      <xdr:colOff>44823</xdr:colOff>
       <xdr:row>162</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>560294</xdr:colOff>
+      <xdr:colOff>593911</xdr:colOff>
       <xdr:row>177</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:rowOff>212911</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Диаграмма 10"/>
+        <xdr:cNvPr id="11" name="Диаграмма 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -15429,19 +15302,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>177</xdr:row>
-      <xdr:rowOff>168089</xdr:rowOff>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>560294</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>168089</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Диаграмма 11"/>
+        <xdr:cNvPr id="12" name="Диаграмма 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -15459,19 +15338,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15736,11 +15602,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T192" sqref="T192"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16096,7 +15962,7 @@
         <v>429.9123331134208</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="2"/>
+        <f>(3*0.8*220^2*(0.11/H5)*3)/(2*3.14*50*((0.125+(0.11/H5))^2+(0.23+0.44)^2))</f>
         <v>501.22754512941265</v>
       </c>
       <c r="I9" s="1">
@@ -16907,7 +16773,7 @@
         <v>302.70017577912159</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" ref="C65:L65" si="9">(3*220^2*(0.11/C63)*3)/(2*3.14*50*((0.125+(0.11/C63))^2+(0.23+0.44)^2))</f>
+        <f t="shared" ref="C65:K65" si="9">(3*220^2*(0.11/C63)*3)/(2*3.14*50*((0.125+(0.11/C63))^2+(0.23+0.44)^2))</f>
         <v>332.44682568165825</v>
       </c>
       <c r="D65" s="1">
@@ -17120,7 +16986,7 @@
         <v>106.70073714997896</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" ref="C71:L71" si="11">(3*176^2*(0.11/C69)*3)/(2*3.14*40*((0.125+(0.11/C69))^2+(0.23+0.44)^2+0.8^2))</f>
+        <f t="shared" ref="C71:K71" si="11">(3*176^2*(0.11/C69)*3)/(2*3.14*40*((0.125+(0.11/C69))^2+(0.23+0.44)^2+0.8^2))</f>
         <v>117.94877518381769</v>
       </c>
       <c r="D71" s="1">
@@ -17849,7 +17715,7 @@
         <v>59.649023235022526</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" ref="C90:M90" si="22">(44)/((0.125+(0.11/C87))^2+(0.23+0.44)^2+0.2^2)^(1/2)</f>
+        <f t="shared" ref="C90:K90" si="22">(44)/((0.125+(0.11/C87))^2+(0.23+0.44)^2+0.2^2)^(1/2)</f>
         <v>59.328572461313662</v>
       </c>
       <c r="D90" s="1">
@@ -18129,7 +17995,7 @@
         <v>302.70017577912159</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" ref="C100:L100" si="23">(3*220^2*(0.11/C98)*3)/(2*3.14*50*((0.125+(0.11/C98))^2+(0.23+0.44)^2))</f>
+        <f t="shared" ref="C100:K100" si="23">(3*220^2*(0.11/C98)*3)/(2*3.14*50*((0.125+(0.11/C98))^2+(0.23+0.44)^2))</f>
         <v>332.44682568165825</v>
       </c>
       <c r="D100" s="1">
@@ -19351,7 +19217,7 @@
         <v>302.70017577912159</v>
       </c>
       <c r="C134" s="1">
-        <f t="shared" ref="C134:L134" si="60">(3*220^2*(0.11/C132)*3)/(2*3.14*50*((0.125+(0.11/C132))^2+(0.23+0.44)^2))</f>
+        <f t="shared" ref="C134:K134" si="60">(3*220^2*(0.11/C132)*3)/(2*3.14*50*((0.125+(0.11/C132))^2+(0.23+0.44)^2))</f>
         <v>332.44682568165825</v>
       </c>
       <c r="D134" s="1">
@@ -20570,7 +20436,7 @@
         <v>302.70017577912159</v>
       </c>
       <c r="C167" s="1">
-        <f t="shared" ref="C167:L167" si="97">(3*220^2*(0.11/C165)*3)/(2*3.14*50*((0.125+(0.11/C165))^2+(0.23+0.44)^2))</f>
+        <f t="shared" ref="C167:K167" si="97">(3*220^2*(0.11/C165)*3)/(2*3.14*50*((0.125+(0.11/C165))^2+(0.23+0.44)^2))</f>
         <v>332.44682568165825</v>
       </c>
       <c r="D167" s="1">
